--- a/biology/Zoologie/Euplecte_vorabé/Euplecte_vorabé.xlsx
+++ b/biology/Zoologie/Euplecte_vorabé/Euplecte_vorabé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Euplecte_vorab%C3%A9</t>
+          <t>Euplecte_vorabé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euplectes afer
 L'Euplecte vorabé (Euplectes afer), aussi appelé Worabée, est une espèce de passereaux de la famille des Ploceidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euplecte_vorab%C3%A9</t>
+          <t>Euplecte_vorabé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau possède des couleurs vives. En plumage nuptial, le mâle est de couleur jaune d'or, avec la poitrine, la face et la gorge d'un noir brillant.
-En dehors de la saison de reproduction, de juillet à décembre, il est semblable aux femelles et aux juvéniles[1].
+En dehors de la saison de reproduction, de juillet à décembre, il est semblable aux femelles et aux juvéniles.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euplecte_vorab%C3%A9</t>
+          <t>Euplecte_vorabé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Il est granivore, mais consomme également des baies et des insectes.
-Comportement social
-C'est une espèce grégaire, aimant vivre en groupes[1]. En cage il peut aussi cohabiter avec des Euplectes ignicolores.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est granivore, mais consomme également des baies et des insectes.
 </t>
         </is>
       </c>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Euplecte_vorab%C3%A9</t>
+          <t>Euplecte_vorabé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce grégaire, aimant vivre en groupes. En cage il peut aussi cohabiter avec des Euplectes ignicolores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euplecte_vorabé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euplecte_vorab%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Afrique subsaharienne continentale et a été introduit en Jamaïque, au Porto Rico, au Japon et au Portugal.
 </t>
